--- a/data/01_은퇴계획편.xlsx
+++ b/data/01_은퇴계획편.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdjhs\git\ws_fn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94282908-D06C-4F7C-BF2A-BDB912D06214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D46FB7-B5AB-4D73-B833-4EE397B90916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="766" activeTab="1" xr2:uid="{3CE6A4AE-AFDE-492F-8072-98DC519E0F45}"/>
+    <workbookView xWindow="43080" yWindow="10620" windowWidth="29040" windowHeight="15720" tabRatio="766" xr2:uid="{3CE6A4AE-AFDE-492F-8072-98DC519E0F45}"/>
   </bookViews>
   <sheets>
     <sheet name="1.목표은퇴자금찾기" sheetId="2" r:id="rId1"/>
@@ -1742,9 +1742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE82BF5-4262-45B6-A7B1-1A3120EBE0BA}">
   <dimension ref="B1:F19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
@@ -1992,8 +1990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B51BC1-7D2E-4025-AF36-876ED5266D03}">
   <dimension ref="B1:L329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -2004,7 +2002,7 @@
     <col min="4" max="4" width="11.8125" style="21" customWidth="1"/>
     <col min="5" max="5" width="11.875" style="21" customWidth="1"/>
     <col min="6" max="6" width="14.125" style="21" customWidth="1"/>
-    <col min="7" max="7" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.6875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.875" style="14" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.875" style="14" bestFit="1" customWidth="1"/>
